--- a/public/parts.xlsx
+++ b/public/parts.xlsx
@@ -219,6 +219,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -381,10 +382,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="G44" activeCellId="0" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -417,13 +418,8 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
         <v>1300832200</v>
       </c>
@@ -437,13 +433,8 @@
       <c r="E2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
         <v>1310016200</v>
       </c>
@@ -457,13 +448,8 @@
       <c r="E3" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
         <v>3240000300</v>
       </c>
@@ -479,13 +465,8 @@
       <c r="E4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
         <v>3240002400</v>
       </c>
@@ -501,13 +482,8 @@
       <c r="E5" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
         <v>3240002400</v>
       </c>
@@ -523,13 +499,8 @@
       <c r="E6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
         <v>3900334700</v>
       </c>
@@ -543,13 +514,8 @@
         <v>13</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="n">
         <v>3900334700</v>
       </c>
@@ -563,13 +529,8 @@
         <v>13</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
         <v>3900334900</v>
       </c>
@@ -585,13 +546,8 @@
       <c r="E9" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
         <v>3900335100</v>
       </c>
@@ -607,13 +563,8 @@
       <c r="E10" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="11" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
         <v>3900335100</v>
       </c>
@@ -629,13 +580,8 @@
       <c r="E11" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="n">
         <v>3900335100</v>
       </c>
@@ -651,13 +597,8 @@
       <c r="E12" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="13" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
         <v>3900335100</v>
       </c>
@@ -673,13 +614,8 @@
       <c r="E13" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="14" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="n">
         <v>4000020400</v>
       </c>
@@ -693,13 +629,8 @@
       <c r="E14" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="15" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="n">
         <v>4000051000</v>
       </c>
@@ -713,13 +644,8 @@
       <c r="E15" s="4" t="n">
         <v>200</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="16" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="n">
         <v>4000213200</v>
       </c>
@@ -733,13 +659,8 @@
       <c r="E16" s="3" t="n">
         <v>7400</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="17" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="n">
         <v>4002175600</v>
       </c>
@@ -751,11 +672,6 @@
         <v>22</v>
       </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="n">
@@ -771,13 +687,8 @@
       <c r="E18" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="n">
         <v>6098605300</v>
       </c>
@@ -791,13 +702,8 @@
       <c r="E19" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="20" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="n">
         <v>6275004800</v>
       </c>
@@ -811,13 +717,8 @@
       <c r="E20" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="21" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="n">
         <v>6520200200</v>
       </c>
@@ -831,13 +732,8 @@
       <c r="E21" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="22" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="n">
         <v>6520656900</v>
       </c>
@@ -851,13 +747,8 @@
       <c r="E22" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="23" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="n">
         <v>6810422600</v>
       </c>
@@ -871,13 +762,8 @@
       <c r="E23" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="24" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="n">
         <v>6810674000</v>
       </c>
@@ -891,13 +777,8 @@
       <c r="E24" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="25" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="n">
         <v>6810744800</v>
       </c>
@@ -911,13 +792,8 @@
       <c r="E25" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="26" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="n">
         <v>6810749000</v>
       </c>
@@ -931,13 +807,8 @@
       <c r="E26" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="27" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="n">
         <v>7105476400</v>
       </c>
@@ -951,13 +822,8 @@
       <c r="E27" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="28" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="n">
         <v>8100273000</v>
       </c>
@@ -971,13 +837,8 @@
       <c r="E28" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="29" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="n">
         <v>8100362500</v>
       </c>
@@ -991,13 +852,8 @@
       <c r="E29" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="30" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="n">
         <v>8240013900</v>
       </c>
@@ -1011,13 +867,8 @@
       <c r="E30" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="31" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="n">
         <v>8240014000</v>
       </c>
@@ -1029,13 +880,8 @@
         <v>42</v>
       </c>
       <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="32" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="n">
         <v>8240014100</v>
       </c>
@@ -1049,13 +895,8 @@
       <c r="E32" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="33" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="n">
         <v>8240021300</v>
       </c>
@@ -1069,13 +910,8 @@
       <c r="E33" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="34" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="n">
         <v>9000025600</v>
       </c>
@@ -1089,13 +925,8 @@
       <c r="E34" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="35" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="n">
         <v>9000025700</v>
       </c>
@@ -1109,11 +940,6 @@
       <c r="E35" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
